--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 12:06 AM</t>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Saturday, 26 July, 2025 12:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>100</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -44,25 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MEDIPHA IVY SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
     <t>100.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Saturday, 26 July, 2025 12:08 AM</t>
+    <t>Saturday, 26 July, 2025 9:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -720,42 +744,108 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:29 AM</t>
+    <t>Saturday, 26 July, 2025 9:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -74,6 +86,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -86,7 +110,7 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:31 AM</t>
+    <t>Saturday, 26 July, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -766,15 +790,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -786,20 +810,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -814,38 +838,104 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>22</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>221</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +959,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -110,7 +119,7 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:26 AM</t>
+    <t>Saturday, 26 July, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -850,7 +859,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -860,11 +869,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -876,66 +885,99 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>221</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>22</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1011,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -71,6 +86,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -107,6 +134,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8513:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -119,7 +161,13 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:27 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 26 July, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -810,7 +858,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -819,20 +867,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -859,7 +907,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,14 +917,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -885,28 +933,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -918,66 +966,198 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>47</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>48</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>31</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>43</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>324.16000000000003</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1196,30 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -122,12 +122,30 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -167,7 +185,19 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:03 AM</t>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 26 July, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1069,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1049,14 +1079,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1065,28 +1095,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1098,66 +1128,165 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
       </c>
-      <c t="s" r="Q16" s="12">
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>31</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>324.16000000000003</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>52</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>53</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>54</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>30</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>31</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>49</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>31</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>408.16000000000002</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1345,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -137,10 +149,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>0:2</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -182,7 +197,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
@@ -197,7 +212,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:20 AM</t>
+    <t>Saturday, 26 July, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,18 +991,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -996,28 +1011,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1029,14 +1044,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1069,7 +1084,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1079,14 +1094,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1095,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1112,14 +1127,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1128,14 +1143,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1145,14 +1160,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1174,7 +1189,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1185,7 +1200,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1194,28 +1209,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1227,66 +1242,99 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>35</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>408.16000000000002</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>62</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>63</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>64</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>445.16000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>68</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1360,10 +1408,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:32 AM</t>
+    <t>Saturday, 26 July, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -98,6 +98,21 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -135,9 +147,6 @@
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>31.00</t>
@@ -991,18 +1000,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1011,20 +1020,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1035,7 +1044,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1051,21 +1060,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1077,14 +1086,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1117,7 +1126,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,14 +1136,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1143,14 +1152,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1164,10 +1173,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1183,7 +1192,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1202,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,31 +1218,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,31 +1251,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,66 +1284,99 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>66</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>67</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>31</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>445.16000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>67</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>68</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>69</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>490.16000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>71</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>72</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1413,10 +1455,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:49 AM</t>
+    <t>Saturday, 26 July, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
@@ -170,12 +182,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -221,7 +227,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:50 AM</t>
+    <t>Saturday, 26 July, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1000,15 +1006,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1020,20 +1026,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1044,7 +1050,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1066,7 +1072,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1077,7 +1083,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1093,21 +1099,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1119,14 +1125,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,11 +1142,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1152,14 +1158,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1173,10 +1179,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1192,7 +1198,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,14 +1208,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1218,14 +1224,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1235,14 +1241,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1251,31 +1257,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,31 +1290,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1324,59 +1330,92 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>69</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>35</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>490.16000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>70</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>71</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>516.15999999999997</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
         <v>72</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>74</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1460,10 +1499,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -215,6 +227,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -227,7 +248,13 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:56 AM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>Saturday, 26 July, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1330,7 +1357,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1340,14 +1367,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1356,14 +1383,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1373,49 +1400,148 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>35</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>516.15999999999997</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>72</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>73</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>74</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>76</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>35</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>35</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>64</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>568.15999999999997</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>83</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1504,10 +1630,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -200,42 +209,48 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -254,7 +269,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 12:27 PM</t>
+    <t>Saturday, 26 July, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1140,10 +1155,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1152,20 +1167,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1192,7 +1207,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1225,7 +1240,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1235,14 +1250,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1251,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1268,14 +1283,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1284,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1301,14 +1316,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,31 +1332,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1367,14 +1382,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1383,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1400,14 +1415,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1423,7 +1438,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1433,14 +1448,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1466,11 +1481,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1499,49 +1514,115 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>568.15999999999997</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>35</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>35</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>66</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>620.15999999999997</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1726,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 1:12 PM</t>
+    <t>Saturday, 26 July, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -263,13 +263,19 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 1:38 PM</t>
+    <t>Saturday, 26 July, 2025 2:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,38 +1597,71 @@
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>620.15999999999997</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>35</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>66</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>640.15999999999997</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>89</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>90</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1775,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -275,7 +287,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 2:24 PM</t>
+    <t>Saturday, 26 July, 2025 2:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1312,7 +1324,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,14 +1334,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,14 +1367,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1371,20 +1383,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1395,7 +1407,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1404,14 +1416,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1428,7 +1440,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1444,7 +1456,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,14 +1466,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1470,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1487,14 +1499,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1520,11 +1532,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1553,7 +1565,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1586,11 +1598,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1619,49 +1631,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>640.15999999999997</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>88</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>89</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>90</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>35</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>70</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>647.21000000000004</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>92</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>93</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>94</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1780,10 +1825,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 2:44 PM</t>
+    <t>Saturday, 26 July, 2025 3:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -287,7 +296,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 3:02 PM</t>
+    <t>Saturday, 26 July, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1099,15 +1108,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1119,20 +1128,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1143,7 +1152,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1159,21 +1168,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1198,7 +1207,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1206,10 +1215,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1218,20 +1227,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1258,7 +1267,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1291,7 +1300,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1301,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1367,14 +1376,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1383,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,31 +1425,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1456,24 +1465,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1482,31 +1491,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1515,31 +1524,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1561,15 +1570,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1594,15 +1603,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1614,28 +1623,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1647,66 +1656,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>647.21000000000004</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>92</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>93</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>94</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>39</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>73</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>671.21000000000004</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>97</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1830,10 +1872,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 3:41 PM</t>
+    <t>Saturday, 26 July, 2025 3:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -296,7 +296,13 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 3:58 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>Saturday, 26 July, 2025 3:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,38 +1723,71 @@
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>671.21000000000004</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>95</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>96</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>39</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>40</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>716.21000000000004</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>97</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>98</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>99</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1877,10 +1916,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 3:59 PM</t>
+    <t>Saturday, 26 July, 2025 4:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -137,6 +149,33 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -158,9 +197,6 @@
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -251,7 +287,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
@@ -287,9 +326,6 @@
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -302,7 +338,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 4:23 PM</t>
+    <t>Saturday, 26 July, 2025 4:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1059,7 +1095,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1092,7 +1128,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1147,15 +1183,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1167,31 +1203,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1200,31 +1236,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1233,28 +1269,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1266,14 +1302,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,14 +1319,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,31 +1335,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,31 +1368,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1418,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1398,14 +1434,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,11 +1451,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1431,14 +1467,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,14 +1484,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,31 +1500,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,28 +1533,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1537,24 +1573,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,31 +1599,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,28 +1632,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1629,31 +1665,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,28 +1698,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1695,28 +1731,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1728,66 +1764,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>716.21000000000004</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>97</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>98</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>104</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>93</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>43</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>85</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>106</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>43</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>85</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>108</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>43</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>44</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1158.21</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>109</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>110</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>111</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1921,10 +2056,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>8:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -311,6 +323,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>غيار جروح غير لاصق10*10</t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -338,7 +362,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 4:34 PM</t>
+    <t>Saturday, 26 July, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1743,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1748,11 +1772,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1764,14 +1788,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1781,7 +1805,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1804,7 +1828,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1814,11 +1838,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1847,11 +1871,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1880,49 +1904,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1158.21</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>109</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>110</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>111</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>114</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>43</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>85</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>115</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>116</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>43</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>44</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1171.21</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>117</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>118</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>119</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2071,10 +2161,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 4:35 PM</t>
+    <t>Saturday, 26 July, 2025 4:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>2:4</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -137,9 +146,6 @@
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -182,9 +188,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -362,7 +365,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 4:36 PM</t>
+    <t>Saturday, 26 July, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1119,7 +1122,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1152,7 +1155,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1185,7 +1188,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1211,11 +1214,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1227,28 +1230,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1260,31 +1263,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,14 +1296,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,14 +1313,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1343,14 +1346,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1359,28 +1362,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1392,31 +1395,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,28 +1428,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1458,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1475,11 +1478,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1491,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,14 +1511,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1524,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1557,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1597,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,31 +1626,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,31 +1659,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,31 +1692,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,31 +1725,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,28 +1758,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1788,28 +1791,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1821,28 +1824,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1854,28 +1857,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1887,28 +1890,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1927,21 +1930,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1953,66 +1956,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1171.21</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>117</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>45</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>46</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1183.21</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>118</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
         <v>119</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2171,10 +2207,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 4:53 PM</t>
+    <t>Saturday, 26 July, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -125,69 +125,81 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>2:4</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -218,6 +230,9 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -311,9 +326,6 @@
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -365,7 +377,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 4:58 PM</t>
+    <t>Saturday, 26 July, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1369,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,7 +1391,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1395,20 +1407,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1416,10 +1428,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1428,14 +1440,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1445,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1461,28 +1473,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1494,14 +1506,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1511,11 +1523,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1527,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1544,14 +1556,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,14 +1572,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1577,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1593,14 +1605,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1626,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,14 +1655,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,24 +1678,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,14 +1770,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,11 +1853,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,7 +1886,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1930,7 +1942,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,11 +1952,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +1985,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,49 +2018,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>121</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>45</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>46</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>47</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1183.21</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>118</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>119</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>120</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1201.21</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>122</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>123</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>124</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2257,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -281,6 +290,15 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 4</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -377,7 +395,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 5:11 PM</t>
+    <t>Saturday, 26 July, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,7 +1102,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1094,11 +1112,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1110,14 +1128,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1127,14 +1145,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1143,14 +1161,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1160,14 +1178,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1259,11 +1277,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1275,28 +1293,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1308,31 +1326,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1414,7 +1432,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,14 +1442,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1447,24 +1465,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1480,24 +1498,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1513,13 +1531,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1546,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1656,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,31 +1722,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1744,21 +1762,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1770,31 +1788,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,28 +1821,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1836,31 +1854,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1882,15 +1900,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1902,20 +1920,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1923,7 +1941,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1935,28 +1953,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1968,28 +1986,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2001,28 +2019,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2034,66 +2052,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1201.21</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>122</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>123</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>124</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>125</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>48</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>97</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>127</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>48</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>49</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1600.21</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>128</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>129</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>130</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2262,10 +2346,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 5:26 PM</t>
+    <t>Saturday, 26 July, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>680.0000</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1729,7 +1738,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,31 +1764,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1795,7 +1804,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1941,7 +1950,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,11 +1979,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2036,11 +2045,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,11 +2078,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,49 +2144,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>130</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>48</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>49</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>50</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1600.21</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>128</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>129</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>130</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2280.21</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>131</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>132</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>133</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2356,10 +2398,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -260,6 +260,9 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -404,7 +407,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 5:32 PM</t>
+    <t>Saturday, 26 July, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1675,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1682,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1698,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1715,14 +1718,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1738,7 +1741,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1748,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1764,14 +1767,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,14 +1784,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1797,31 +1800,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1830,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,14 +1850,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,14 +1899,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1913,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1929,14 +1932,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1946,14 +1949,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1962,14 +1965,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1979,11 +1982,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1995,14 +1998,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2012,11 +2015,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2028,14 +2031,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2045,11 +2048,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2061,14 +2064,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2078,11 +2081,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2094,14 +2097,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2111,11 +2114,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2134,7 +2137,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2144,11 +2147,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2160,14 +2163,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2177,49 +2180,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>130</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>131</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>48</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>49</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>50</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2280.21</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>131</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2304.21</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>132</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
         <v>133</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>134</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2403,10 +2439,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -278,6 +278,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
@@ -407,7 +410,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 5:50 PM</t>
+    <t>Saturday, 26 July, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1741,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1755,10 +1758,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,7 +1770,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1784,11 +1787,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1800,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1820,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,7 +1836,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1850,11 +1853,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1866,7 +1869,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1883,11 +1886,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1899,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1949,14 +1952,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,14 +1968,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,11 +1985,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1998,7 +2001,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2015,7 +2018,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2031,14 +2034,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,11 +2051,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,11 +2084,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2097,14 +2100,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,11 +2117,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2130,14 +2133,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,11 +2183,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,13 +2228,13 @@
     </row>
     <row r="43" ht="24.75" customHeight="1">
       <c r="P43" s="13">
-        <v>2304.21</v>
+        <v>2330.21</v>
       </c>
       <c r="Q43" s="13"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c t="s" r="A44" s="14">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2239,13 +2242,13 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c t="s" r="G44" s="15">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
       <c t="s" r="K44" s="17">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 5:56 PM</t>
+    <t>Saturday, 26 July, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -98,15 +110,21 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -227,6 +245,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
   </si>
   <si>
@@ -290,6 +317,18 @@
     <t>680.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -338,66 +377,72 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>غيار جروح غير لاصق10*10</t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>معجون حلاقه 55555</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>غيار جروح غير لاصق10*10</t>
-  </si>
-  <si>
-    <t>57:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>معجون حلاقه 55555</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -410,7 +455,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 6:07 PM</t>
+    <t>Saturday, 26 July, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,7 +1162,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1127,11 +1172,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1143,14 +1188,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1200,7 +1245,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1216,7 +1261,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1226,14 +1271,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1242,14 +1287,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1259,14 +1304,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1275,14 +1320,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1292,11 +1337,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1308,14 +1353,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1325,14 +1370,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1341,28 +1386,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1374,14 +1419,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1391,14 +1436,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1407,28 +1452,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1440,14 +1485,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1457,14 +1502,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1473,14 +1518,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1519,7 +1564,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1527,7 +1572,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1546,13 +1591,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1579,24 +1624,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1612,21 +1657,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1638,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1655,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1671,7 +1716,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1688,11 +1733,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1728,7 +1773,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1744,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,14 +1799,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,14 +1815,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,14 +1832,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1827,7 +1872,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,31 +1881,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,28 +1914,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1902,31 +1947,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,24 +1980,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1975,21 +2020,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2001,31 +2046,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2047,15 +2092,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2067,31 +2112,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,28 +2145,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2133,28 +2178,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2179,15 +2224,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2199,66 +2244,231 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2330.21</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>133</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>134</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>135</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>137</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>54</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>138</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>141</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>54</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>115</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>142</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>143</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>54</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>115</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>145</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>54</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>115</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>146</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>147</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>54</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>55</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2518.04</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>148</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>149</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>150</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2447,10 +2657,35 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -116,6 +128,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -149,6 +173,21 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -161,9 +200,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -200,9 +236,6 @@
     <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>329.00</t>
   </si>
   <si>
@@ -239,9 +272,6 @@
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -302,6 +332,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -455,7 +494,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 6:43 PM</t>
+    <t>Saturday, 26 July, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1300,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1271,14 +1310,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1287,7 +1326,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1304,14 +1343,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1320,14 +1359,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1337,14 +1376,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1353,14 +1392,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1377,7 +1416,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1403,11 +1442,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1419,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1436,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1452,31 +1491,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1485,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1518,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1551,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,28 +1623,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1617,31 +1656,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1650,28 +1689,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1683,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1704,10 +1743,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1716,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,11 +1772,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1749,31 +1788,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1782,31 +1821,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1815,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1832,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1848,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1881,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1935,10 +1974,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1954,7 +1993,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2013,28 +2052,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2046,28 +2085,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2079,31 +2118,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,31 +2151,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,31 +2184,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,28 +2217,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2211,31 +2250,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,28 +2283,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2277,31 +2316,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,28 +2349,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2343,28 +2382,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2376,28 +2415,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2409,66 +2448,231 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2518.04</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>148</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>149</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>150</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>66</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>151</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>153</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>154</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>66</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>128</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>156</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>66</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>128</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>157</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>158</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>66</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>128</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>159</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>160</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>66</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>67</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2805.04</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>161</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>162</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>163</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2682,10 +2886,35 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,30 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>BRAVAMAX 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -98,15 +122,27 @@
     <t>CALDIN ZINC SUSP. 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
     <t>55.0000</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -188,6 +224,18 @@
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -206,15 +254,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -326,9 +377,6 @@
     <t>0:17</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
     <t>7.0500</t>
   </si>
   <si>
@@ -341,6 +389,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -494,7 +551,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:04 PM</t>
+    <t>Saturday, 26 July, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1291,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1244,14 +1301,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1260,14 +1317,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1277,11 +1334,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1293,14 +1350,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1333,7 +1390,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1350,7 +1407,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1372,15 +1429,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1392,14 +1449,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1409,11 +1466,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1425,14 +1482,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1442,14 +1499,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1458,14 +1515,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1475,11 +1532,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1491,14 +1548,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1515,7 +1572,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1531,7 +1588,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,11 +1598,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1557,14 +1614,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,14 +1631,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1590,14 +1647,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,14 +1664,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,28 +1680,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1656,14 +1713,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,14 +1730,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,14 +1746,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,14 +1763,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1722,14 +1779,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,14 +1796,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,14 +1812,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,11 +1829,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1788,28 +1845,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1821,28 +1878,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1854,14 +1911,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1928,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1894,7 +1951,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1941,10 +1998,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +2010,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +2027,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,31 +2043,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2026,24 +2083,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2052,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,11 +2126,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2085,14 +2142,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2159,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,14 +2175,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2142,7 +2199,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,10 +2229,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2191,7 +2248,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2258,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,31 +2274,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,31 +2307,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,31 +2340,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,31 +2373,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,31 +2406,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,31 +2439,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,31 +2472,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,28 +2505,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2481,31 +2538,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,28 +2571,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2547,31 +2604,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2580,28 +2637,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2620,59 +2677,290 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2805.04</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>161</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>162</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>41</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>147</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>165</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>41</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>166</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>169</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>41</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>170</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>173</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>41</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>147</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>174</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>175</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>41</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>147</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>177</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>41</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>147</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>179</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>41</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>42</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3151.0900000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>180</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>181</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>182</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2911,10 +3199,45 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
@@ -185,6 +197,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -209,6 +230,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -227,6 +257,15 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>EXARETIC 20 MG 30 TAB.</t>
   </si>
   <si>
@@ -326,6 +365,27 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -365,12 +425,18 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -473,7 +539,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -500,9 +569,6 @@
     <t>33:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>غيار جروح غير لاصق10*10</t>
   </si>
   <si>
@@ -524,9 +590,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -551,7 +614,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:06 PM</t>
+    <t>Saturday, 26 July, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1341,7 +1404,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1357,7 +1420,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1367,11 +1430,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1383,14 +1446,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1400,11 +1463,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1416,31 +1479,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1449,20 +1512,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1473,7 +1536,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1489,7 +1552,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1499,14 +1562,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1515,14 +1578,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1555,7 +1618,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1565,14 +1628,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1581,14 +1644,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1621,7 +1684,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1631,14 +1694,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1647,14 +1710,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1664,14 +1727,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1680,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,14 +1760,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1713,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,11 +1793,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1746,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,11 +1859,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1812,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1845,7 +1908,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1862,11 +1925,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1878,31 +1941,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1911,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1951,7 +2014,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1984,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,11 +2057,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2017,21 +2080,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2043,31 +2106,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2076,28 +2139,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2109,14 +2172,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2189,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2142,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,11 +2222,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2175,31 +2238,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2208,31 +2271,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2241,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,11 +2321,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2274,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,11 +2354,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2307,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,11 +2387,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2340,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2406,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,14 +2502,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2519,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2496,7 +2559,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,31 +2568,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,31 +2601,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,31 +2634,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,31 +2667,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2637,31 +2700,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,31 +2733,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,31 +2766,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,20 +2799,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2776,24 +2839,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,28 +2865,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2835,31 +2898,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,28 +2931,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2901,66 +2964,297 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3151.0900000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>180</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>181</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>182</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>184</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>185</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>45</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>169</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>186</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>187</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>45</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>188</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>190</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>191</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>45</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>192</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>193</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>194</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>45</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>169</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>195</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>196</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>45</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>169</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>197</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>198</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>45</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>169</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>199</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>200</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>45</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>46</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3470.5100000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>201</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>202</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>203</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3234,10 +3528,45 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
@@ -323,6 +335,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
   </si>
   <si>
@@ -344,21 +365,18 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
-    <t>0:8</t>
+    <t>0:7</t>
   </si>
   <si>
     <t>300.00</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -377,9 +395,6 @@
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -455,6 +470,21 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -503,9 +533,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -614,7 +641,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:19 PM</t>
+    <t>Saturday, 26 July, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1480,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1463,11 +1490,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1496,11 +1523,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1512,31 +1539,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1545,20 +1572,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1569,7 +1596,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1585,7 +1612,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1595,14 +1622,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1651,7 +1678,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1694,11 +1721,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1767,7 +1794,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1783,7 +1810,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,11 +1820,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1833,7 +1860,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1849,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1886,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,11 +1952,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1941,7 +1968,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1958,11 +1985,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,11 +2051,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,31 +2100,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2163,7 +2190,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2193,7 +2220,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,11 +2249,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2238,28 +2265,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2271,28 +2298,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2311,24 +2338,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,31 +2364,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,11 +2546,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,7 +2628,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,11 +2678,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2667,7 +2694,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2707,7 +2734,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,31 +2826,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,31 +2859,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,31 +2925,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,28 +2958,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,28 +3024,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3030,31 +3057,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,28 +3090,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3096,28 +3123,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3129,28 +3156,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3162,28 +3189,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3208,53 +3235,185 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3470.5100000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>201</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>202</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>203</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>49</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>178</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>205</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>49</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>178</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>207</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>49</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>178</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>209</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>49</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>50</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3596.0450000000001</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3563,10 +3722,30 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -485,6 +494,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -503,10 +521,16 @@
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
+    <t>-7:0</t>
+  </si>
+  <si>
     <t>68.00</t>
   </si>
   <si>
-    <t>680.0000</t>
+    <t>1360.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -641,7 +665,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:30 PM</t>
+    <t>Saturday, 26 July, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2065,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,7 +2075,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2074,7 +2098,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,7 +2108,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2107,7 +2131,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2124,7 +2148,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2140,24 +2164,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,31 +2190,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2239,7 +2263,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2256,7 +2280,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2272,7 +2296,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,7 +2329,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,31 +2355,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,7 +2421,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2410,11 +2434,11 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2437,7 +2461,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2454,7 +2478,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2470,7 +2494,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2487,7 +2511,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2503,7 +2527,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2536,7 +2560,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2570,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2602,7 +2626,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2669,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2668,7 +2692,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,7 +2702,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2701,7 +2725,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2734,7 +2758,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,11 +2801,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2800,7 +2824,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2833,7 +2857,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2966,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2965,24 +2989,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,31 +3015,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3098,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,11 +3131,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3329,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,49 +3395,115 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3596.0450000000001</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>211</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>212</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>214</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>215</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>49</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>186</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>216</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>217</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>49</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>50</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4593.0450000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>218</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>219</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>220</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3832,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -665,7 +665,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:32 PM</t>
+    <t>Saturday, 26 July, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -308,10 +308,13 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
@@ -440,6 +443,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -455,9 +467,6 @@
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -515,9 +524,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
@@ -614,6 +620,12 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -656,16 +668,13 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:33 PM</t>
+    <t>Saturday, 26 July, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2131,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2157,7 +2166,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2174,11 +2183,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2190,7 +2199,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2211,7 +2220,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2256,7 +2265,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2289,7 +2298,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2339,7 +2348,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2355,7 +2364,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2421,7 +2430,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2442,7 +2451,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2454,7 +2463,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2520,7 +2529,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2553,7 +2562,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2603,11 +2612,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2640,10 +2649,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,7 +2744,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2758,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2791,7 +2800,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2834,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2857,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2874,7 +2883,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2907,7 +2916,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2933,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3048,31 +3057,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3253,7 +3262,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3286,7 +3295,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3461,49 +3470,115 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4593.0450000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>218</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>99</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>49</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>188</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>219</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>220</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>49</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>50</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4688.0450000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>221</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>222</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>223</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3842,10 +3917,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -332,6 +332,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
@@ -377,6 +380,12 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -503,6 +512,9 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -632,6 +644,9 @@
     <t>33:0</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t>غيار جروح غير لاصق10*10</t>
   </si>
   <si>
@@ -674,7 +689,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:41 PM</t>
+    <t>Saturday, 26 July, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2254,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2404,24 +2419,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,7 +2445,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2443,18 +2458,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2463,31 +2478,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,31 +2511,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2546,11 +2561,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,11 +2627,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2767,7 +2782,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,7 +2808,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,31 +3105,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,31 +3138,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,31 +3171,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3287,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,11 +3419,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,11 +3485,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,49 +3551,181 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>219</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>220</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>49</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>192</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>221</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>222</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>49</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>192</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>99</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>49</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>192</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>49</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>50</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>106</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4688.0450000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>221</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>222</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>223</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4988.0450000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>226</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>227</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>228</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3927,10 +4074,30 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -398,6 +407,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -563,6 +584,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VOTRIAXONE 500 MG I.M VIAL</t>
+  </si>
+  <si>
+    <t>20.50</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -608,66 +638,69 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>غيار جروح غير لاصق10*10</t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>شامبو صانسيلك صغير 180ملل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>غيار جروح غير لاصق10*10</t>
-  </si>
-  <si>
-    <t>57:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -689,7 +722,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 7:46 PM</t>
+    <t>Saturday, 26 July, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1759,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1736,11 +1769,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1752,14 +1785,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1776,7 +1809,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1792,7 +1825,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1825,7 +1858,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1835,11 +1868,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1851,14 +1884,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,14 +1901,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,14 +1917,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1924,7 +1957,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,14 +1967,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1950,14 +1983,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1983,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2033,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,11 +2066,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2089,7 +2122,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2106,7 +2139,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2122,7 +2155,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,7 +2165,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2165,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2181,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2205,7 +2238,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2221,24 +2254,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,28 +2280,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2280,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2363,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2353,7 +2386,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2370,7 +2403,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2386,7 +2419,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2429,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2419,7 +2452,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,14 +2478,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2495,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,31 +2511,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2561,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,7 +2577,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2561,11 +2594,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2577,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,11 +2627,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2610,7 +2643,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2623,15 +2656,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2643,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,11 +2693,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2676,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,14 +2808,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,11 +2825,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2815,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,11 +2858,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2841,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2907,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2957,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2940,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,11 +2990,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2973,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,11 +3023,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3006,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3056,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3046,7 +3079,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3079,7 +3112,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,14 +3122,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3112,7 +3145,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,11 +3188,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3171,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3221,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,31 +3237,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,31 +3270,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,31 +3303,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3303,31 +3336,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,11 +3386,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3369,14 +3402,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,14 +3419,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,11 +3452,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3435,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3452,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3475,7 +3508,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,11 +3518,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3501,14 +3534,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,11 +3551,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3534,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3555,7 +3588,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3584,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3607,7 +3640,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,11 +3650,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3633,14 +3666,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3666,14 +3699,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,49 +3716,181 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4988.0450000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>226</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>227</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>228</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>231</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>49</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>202</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>233</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>49</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>202</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>102</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>49</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>202</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>236</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>49</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>50</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>5173.4849999999997</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>237</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>238</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>239</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4094,10 +4259,30 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CORVIBEAK 20CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -263,360 +272,375 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MEDIPHA IVY SYRUP</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>-7:0</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>1360.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VOTRIAXONE 500 MG I.M VIAL</t>
+  </si>
+  <si>
+    <t>20.50</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8513:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 4</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ENRICH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MEDIPHA IVY SYRUP</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 50 GM</t>
-  </si>
-  <si>
-    <t>-7:0</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>1360.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VOTRIAXONE 500 MG I.M VIAL</t>
-  </si>
-  <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8513:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 4</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>350.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -722,7 +746,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 8:06 PM</t>
+    <t>Saturday, 26 July, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,13 +1882,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1875,7 +1899,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1891,7 +1915,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1901,11 +1925,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1917,14 +1941,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1950,14 +1974,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1990,7 +2014,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,14 +2024,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2016,14 +2040,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2049,14 +2073,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2123,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,11 +2156,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2155,7 +2179,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2172,7 +2196,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2188,7 +2212,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2222,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2221,7 +2245,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2280,31 +2304,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2320,7 +2344,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,31 +2370,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,11 +2486,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,11 +2519,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2544,31 +2568,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2577,7 +2601,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2594,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2617,24 +2641,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2643,7 +2667,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2656,15 +2680,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2683,7 +2707,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2700,7 +2724,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2716,24 +2740,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,7 +2766,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2759,11 +2783,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,11 +2849,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,11 +2948,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,7 +2981,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2990,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3013,7 +3037,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3039,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,11 +3080,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3072,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,11 +3113,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3146,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3204,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3369,31 +3393,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3402,31 +3426,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3435,31 +3459,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,31 +3492,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>210</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,11 +3608,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3600,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3617,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3687,7 +3711,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3773,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3848,49 +3872,181 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>5173.4849999999997</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>237</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>238</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>239</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>49</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>210</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>241</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>49</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>210</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>242</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>87</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>49</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>210</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>244</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>49</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>50</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5470.4849999999997</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4279,10 +4435,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -698,6 +698,15 @@
     <t>33:0</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -719,12 +728,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -746,7 +749,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 8:11 PM</t>
+    <t>Saturday, 26 July, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3796,7 +3799,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3905,11 +3908,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3994,7 +3997,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,49 +4007,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>244</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>245</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>49</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>50</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>114</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5470.4849999999997</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>245</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5500.4849999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>246</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
         <v>247</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>248</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4491,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 8:25 PM</t>
+    <t>Saturday, 26 July, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -122,15 +122,21 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>122.00</t>
-  </si>
-  <si>
     <t>122.0000</t>
   </si>
   <si>
@@ -281,6 +287,21 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -329,9 +350,6 @@
     <t>7:4</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -440,6 +458,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -566,6 +593,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -575,6 +611,9 @@
     <t>57.7500</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -626,6 +665,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -749,7 +797,10 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 8:36 PM</t>
+    <t>مناديل شمع</t>
+  </si>
+  <si>
+    <t>Saturday, 26 July, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1639,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1598,14 +1649,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1614,14 +1665,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1631,11 +1682,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1647,14 +1698,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1664,11 +1715,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1680,31 +1731,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1713,31 +1764,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1746,14 +1797,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,14 +1814,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1779,7 +1830,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1796,11 +1847,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1812,14 +1863,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,11 +1880,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1845,14 +1896,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1862,14 +1913,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1878,31 +1929,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,31 +1962,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1995,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,11 +2012,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1977,14 +2028,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1994,14 +2045,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,14 +2061,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,11 +2078,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2043,14 +2094,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2109,14 +2160,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,11 +2177,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2142,14 +2193,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,11 +2210,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2175,14 +2226,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2243,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2259,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2276,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2299,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2309,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2340,14 +2391,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,28 +2424,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2406,14 +2457,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2474,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2446,7 +2497,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2507,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,7 +2523,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2485,18 +2536,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2556,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,11 +2573,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2538,14 +2589,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2622,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,14 +2639,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,14 +2655,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2672,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2650,7 +2701,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2658,10 +2709,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,11 +2738,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2703,14 +2754,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2771,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,31 +2787,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2776,7 +2827,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,11 +2837,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2802,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,11 +2870,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2835,28 +2886,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2868,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,11 +2969,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2934,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,14 +3051,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,14 +3068,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,11 +3101,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3066,14 +3117,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3134,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3106,7 +3157,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,7 +3167,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3139,7 +3190,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3200,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,7 +3266,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3238,7 +3289,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3332,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3304,7 +3355,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3398,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3363,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3431,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3497,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3530,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3563,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,31 +3579,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,28 +3612,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3594,31 +3645,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,31 +3678,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>218</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,31 +3711,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,31 +3744,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,31 +3777,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,28 +3810,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3792,31 +3843,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,28 +3876,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3858,31 +3909,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,28 +3942,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3931,21 +3982,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3964,21 +4015,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3997,21 +4048,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4023,66 +4074,330 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5500.4849999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>34</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>51</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>66</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>249</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>250</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>51</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>251</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>254</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>51</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>246</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>247</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>248</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>255</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>256</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>51</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>226</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>257</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>258</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>51</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>226</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>259</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>89</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>51</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>226</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>260</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>261</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>51</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>52</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>262</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>22</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>51</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>170</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5810.1149999999998</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>263</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>264</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>265</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4496,10 +4811,50 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 8:54 PM</t>
+    <t>Saturday, 26 July, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
@@ -800,7 +809,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:02 PM</t>
+    <t>Saturday, 26 July, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,7 +2209,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2214,7 +2223,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2276,11 +2285,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2398,7 +2407,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,11 +2450,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2530,24 +2539,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,28 +2565,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2662,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2679,7 +2688,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2695,7 +2704,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,31 +2796,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,31 +2829,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,24 +2902,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2919,31 +2928,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2976,7 +2985,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2992,7 +3001,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3009,7 +3018,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3091,7 +3100,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3174,7 +3183,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3223,7 +3232,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,7 +3308,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3322,7 +3331,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3421,7 +3430,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,11 +3473,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3487,7 +3496,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3520,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3553,7 +3562,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3570,7 +3579,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3586,7 +3595,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3735,7 +3744,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3751,7 +3760,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3777,20 +3786,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3801,7 +3810,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3817,7 +3826,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3834,7 +3843,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3850,7 +3859,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3996,7 +4005,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4025,11 +4034,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4074,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,11 +4100,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4114,7 +4123,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,11 +4199,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,11 +4232,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,11 +4265,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4322,11 +4331,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4355,49 +4364,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5810.1149999999998</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>263</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>264</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>265</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>22</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>51</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>173</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5825.9549999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>266</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>267</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>268</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4851,10 +4893,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:17 PM</t>
+    <t>Saturday, 26 July, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -245,213 +254,237 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>ENRICH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -542,12 +575,18 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>POWCOLD SUSPENSION 100 ML</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
@@ -719,10 +758,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -758,12 +794,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -788,9 +818,6 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
@@ -809,7 +836,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:18 PM</t>
+    <t>Saturday, 26 July, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1906,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1896,7 +1923,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1912,7 +1939,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,11 +1949,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1962,7 +1989,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1978,13 +2005,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1995,7 +2022,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2011,13 +2038,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2028,7 +2055,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2044,7 +2071,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2054,11 +2081,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2120,11 +2147,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2252,7 +2279,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2275,7 +2302,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2301,7 +2328,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2318,11 +2345,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2384,11 +2411,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2400,7 +2427,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2417,11 +2444,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,14 +2477,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2466,14 +2493,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,11 +2510,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2506,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,14 +2559,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2549,14 +2576,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,31 +2592,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2605,7 +2632,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,31 +2658,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2664,14 +2691,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2730,14 +2757,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,11 +2774,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2763,14 +2790,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,11 +2807,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2796,14 +2823,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2840,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,31 +2856,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2862,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2879,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,7 +2922,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2941,18 +2968,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2968,24 +2995,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2994,7 +3021,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3011,7 +3038,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3034,7 +3061,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3073,15 +3100,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3093,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,7 +3153,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3143,11 +3170,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3159,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3183,7 +3210,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3199,7 +3226,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3216,7 +3243,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3232,7 +3259,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3269,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3265,7 +3292,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,11 +3302,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3298,7 +3325,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,14 +3335,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,11 +3368,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3357,14 +3384,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3401,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3434,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3456,14 +3483,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3489,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3555,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3595,7 +3622,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3628,7 +3655,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3665,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3661,7 +3688,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3687,14 +3714,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3727,7 +3754,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3786,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,28 +3846,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3852,31 +3879,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,31 +3912,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,31 +3945,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,31 +3978,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>237</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,14 +4028,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,14 +4044,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4061,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4050,14 +4077,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,14 +4094,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,14 +4110,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,11 +4127,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4123,7 +4150,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,11 +4193,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4182,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,11 +4226,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4222,7 +4249,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4265,11 +4292,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4288,7 +4315,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4298,11 +4325,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4314,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4331,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4347,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4364,11 +4391,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4380,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4397,49 +4424,214 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5825.9549999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>266</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>267</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>268</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>249</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>51</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>242</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>270</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>51</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>242</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>271</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>91</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>51</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>242</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>273</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>51</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>52</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>274</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>22</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>51</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>184</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>6087.7150000000001</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>275</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>276</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>277</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4898,10 +5090,35 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:19 PM</t>
+    <t>Saturday, 26 July, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -233,6 +233,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CORVIBEAK 20CAPS</t>
   </si>
   <si>
@@ -485,6 +497,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -545,6 +569,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -743,6 +776,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -761,12 +803,18 @@
     <t>25:0</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -801,12 +849,6 @@
   </si>
   <si>
     <t>57:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
@@ -2038,24 +2080,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2064,31 +2106,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2097,14 +2139,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2114,14 +2156,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2130,14 +2172,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2154,7 +2196,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2170,7 +2212,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2180,11 +2222,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2196,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2220,7 +2262,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2236,7 +2278,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2246,14 +2288,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2262,14 +2304,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2279,14 +2321,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2295,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2312,11 +2354,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2328,14 +2370,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2345,14 +2387,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2361,7 +2403,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2378,11 +2420,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2394,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2427,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2444,11 +2486,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2460,7 +2502,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2477,11 +2519,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2493,14 +2535,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2510,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2526,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2543,11 +2585,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2559,14 +2601,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2576,11 +2618,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2592,14 +2634,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2609,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2625,14 +2667,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,14 +2684,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2658,31 +2700,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2691,28 +2733,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2724,14 +2766,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2741,14 +2783,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2757,14 +2799,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2781,7 +2823,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2790,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2807,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2823,14 +2865,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2840,11 +2882,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2856,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,11 +2915,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2889,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2906,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2922,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,14 +3014,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2988,31 +3030,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3028,24 +3070,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3054,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,14 +3113,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,28 +3129,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3120,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,11 +3179,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3160,7 +3202,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3177,7 +3219,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3193,24 +3235,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3278,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,11 +3311,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3285,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3302,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3318,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3358,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3375,7 +3417,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3391,7 +3433,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,14 +3443,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3417,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,11 +3476,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3450,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3483,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,11 +3542,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3516,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,11 +3608,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3582,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,11 +3674,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3648,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3714,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,14 +3773,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3846,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>222</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,14 +4020,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,31 +4053,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,31 +4086,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,31 +4119,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,31 +4152,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,14 +4185,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,14 +4202,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>249</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4218,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,11 +4235,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4209,14 +4251,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4268,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,14 +4284,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4263,7 +4305,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4292,11 +4334,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4308,14 +4350,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,14 +4367,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,14 +4383,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4400,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4374,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4433,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4407,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4440,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,11 +4499,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4473,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,11 +4532,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4506,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,11 +4565,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4539,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4556,11 +4598,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4572,14 +4614,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4589,49 +4631,247 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>6087.7150000000001</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>275</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>276</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>277</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>280</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>281</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>51</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>123</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>263</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>51</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>253</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>284</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>51</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>253</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>285</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>95</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>51</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>253</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>286</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>287</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>51</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>52</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>22</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>51</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>195</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6221.5550000000003</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>289</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>290</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>291</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5115,10 +5355,40 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ANSELACOX 90MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>103.9500</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -488,9 +509,6 @@
     <t>300.00</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
@@ -503,6 +521,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LEZBERG TRIO 40/10/25MG TAB</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -515,7 +542,10 @@
     <t>105.00</t>
   </si>
   <si>
-    <t>34.6500</t>
+    <t>139.6500</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>MEDIPHA IVY SYRUP</t>
@@ -581,6 +611,15 @@
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
+    <t>ONE ALPHA 0.5 MCG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>178.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -623,9 +662,6 @@
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -770,9 +806,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -878,7 +911,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:41 PM</t>
+    <t>Saturday, 26 July, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1701,7 +1734,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1717,7 +1750,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1727,14 +1760,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1743,14 +1776,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1760,14 +1793,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1776,14 +1809,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1793,11 +1826,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1809,14 +1842,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1826,11 +1859,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1842,31 +1875,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1875,20 +1908,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1899,7 +1932,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1915,7 +1948,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1925,14 +1958,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1941,14 +1974,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1958,14 +1991,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1991,14 +2024,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2007,14 +2040,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2047,7 +2080,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2057,14 +2090,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2073,14 +2106,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2113,24 +2146,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2139,31 +2172,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2172,14 +2205,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2189,14 +2222,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2205,14 +2238,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2229,7 +2262,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2245,7 +2278,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2255,11 +2288,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2271,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2295,7 +2328,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2311,7 +2344,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2321,14 +2354,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2337,14 +2370,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2354,14 +2387,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2387,11 +2420,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2403,14 +2436,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2420,14 +2453,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2436,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2453,11 +2486,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2469,14 +2502,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2519,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2502,14 +2535,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,11 +2552,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2535,7 +2568,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2552,11 +2585,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2568,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,14 +2618,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,11 +2651,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2634,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,11 +2684,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,14 +2717,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2700,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,14 +2750,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2733,28 +2766,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2766,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2783,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,31 +2832,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,14 +2882,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2889,7 +2922,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2915,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2931,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,11 +2981,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2964,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +3014,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,11 +3047,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,14 +3080,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,31 +3096,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,14 +3129,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,14 +3146,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,31 +3162,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3195,14 +3228,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3228,31 +3261,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,14 +3294,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,11 +3311,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3294,14 +3327,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,14 +3344,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3327,31 +3360,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,11 +3443,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3426,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,11 +3509,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3492,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,11 +3542,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3525,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,11 +3641,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3624,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,11 +3674,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3657,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,11 +3707,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3690,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3723,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,11 +3773,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3756,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,11 +3839,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3822,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,11 +3905,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3888,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3905,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3954,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3994,7 +4027,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>233</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,11 +4136,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4119,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,31 +4218,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,31 +4251,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,31 +4284,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,31 +4317,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,31 +4350,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,31 +4383,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>263</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,31 +4416,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4416,20 +4449,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4437,7 +4470,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4449,20 +4482,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4470,7 +4503,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4482,31 +4515,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,28 +4548,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4548,28 +4581,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4581,28 +4614,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4614,28 +4647,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4647,28 +4680,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4680,28 +4713,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4713,28 +4746,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4746,28 +4779,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4779,28 +4812,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4812,66 +4845,198 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6221.5550000000003</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>289</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>290</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>291</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>294</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>295</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>55</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>133</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>296</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>99</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>55</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>133</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>297</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>298</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>55</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>56</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>299</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>22</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>55</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>208</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6681.9650000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>300</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>301</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>302</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5385,10 +5550,30 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANSELACOX 90MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -626,12 +635,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -911,7 +914,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:43 PM</t>
+    <t>Saturday, 26 July, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1654,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1661,14 +1664,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1677,14 +1680,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1694,11 +1697,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1727,11 +1730,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1760,14 +1763,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1800,7 +1803,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1816,7 +1819,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1826,14 +1829,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1849,7 +1852,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1859,7 +1862,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1882,7 +1885,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1915,24 +1918,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1941,31 +1944,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1998,7 +2001,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2014,7 +2017,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2031,7 +2034,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2047,7 +2050,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2064,7 +2067,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2080,7 +2083,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2130,7 +2133,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2146,7 +2149,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2156,11 +2159,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2172,20 +2175,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2196,7 +2199,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2212,13 +2215,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2229,7 +2232,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2245,7 +2248,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2262,7 +2265,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2278,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2288,14 +2291,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2304,14 +2307,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2344,7 +2347,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2394,7 +2397,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2410,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2423,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2443,7 +2446,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2453,11 +2456,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2489,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2509,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,11 +2588,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2641,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2658,7 +2661,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2674,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,11 +2687,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2740,7 +2743,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2757,7 +2760,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2773,7 +2776,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2790,7 +2793,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2823,7 +2826,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2839,24 +2842,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,28 +2868,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2971,7 +2974,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2988,7 +2991,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3004,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3037,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3070,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3080,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3113,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3162,31 +3165,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3202,24 +3205,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3261,31 +3264,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3301,21 +3304,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,31 +3363,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,31 +3396,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3433,7 +3436,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3450,7 +3453,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3466,7 +3469,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3483,7 +3486,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3499,7 +3502,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3516,7 +3519,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3532,7 +3535,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3565,7 +3568,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3598,7 +3601,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3664,7 +3667,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3796,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3862,7 +3865,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3928,7 +3931,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4027,7 +4030,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4192,7 +4195,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4225,7 +4228,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>245</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,31 +4353,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,31 +4386,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,31 +4419,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,31 +4452,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,28 +4485,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4515,31 +4518,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,31 +4551,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,28 +4584,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4614,28 +4617,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4647,28 +4650,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4680,28 +4683,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4713,28 +4716,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4753,21 +4756,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4786,21 +4789,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4812,28 +4815,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4845,28 +4848,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4885,21 +4888,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4911,28 +4914,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4951,21 +4954,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>102</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4977,66 +4980,99 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6681.9650000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>300</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>22</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>58</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>209</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6712.9650000000001</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>301</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>302</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>303</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5570,10 +5606,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -362,6 +362,18 @@
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -413,9 +425,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -446,9 +455,6 @@
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -485,6 +491,15 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>HYDROQUINE 200MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -770,9 +785,6 @@
     <t>20.50</t>
   </si>
   <si>
-    <t>82.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -914,7 +926,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 9:56 PM</t>
+    <t>Saturday, 26 July, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2578,7 +2590,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2588,11 +2600,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2637,7 +2649,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2654,11 +2666,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2687,14 +2699,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,11 +2765,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2859,7 +2871,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2875,24 +2887,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2901,28 +2913,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,11 +3062,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,11 +3095,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3139,7 +3151,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,31 +3210,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3271,24 +3283,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3297,31 +3309,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3337,7 +3349,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3370,13 +3382,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3387,7 +3399,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,31 +3408,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3475,15 +3487,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,11 +3524,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3528,7 +3540,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,11 +3656,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3733,7 +3745,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3750,7 +3762,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,7 +3811,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,7 +3936,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3986,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4030,7 +4042,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,7 +4101,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4106,11 +4118,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,11 +4151,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,7 +4233,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>246</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,31 +4398,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,31 +4431,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,11 +4514,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4613,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4679,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4723,7 +4735,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4766,11 +4778,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4811,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4844,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>278</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4848,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4877,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4888,7 +4900,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,11 +4943,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4997,11 +5009,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5030,49 +5042,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6712.9650000000001</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>301</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>302</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>303</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>58</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>59</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>304</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>22</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>58</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>214</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6846.9650000000001</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>305</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>306</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>307</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5611,10 +5689,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -329,9 +341,6 @@
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -341,9 +350,6 @@
     <t>9:2</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
@@ -567,9 +573,6 @@
   </si>
   <si>
     <t>139.6500</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>MEDIPHA IVY SYRUP</t>
@@ -1897,7 +1900,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1907,14 +1910,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1923,14 +1926,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1940,11 +1943,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1956,31 +1959,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1989,20 +1992,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2013,7 +2016,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2029,7 +2032,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2075,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2105,14 +2108,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2161,7 +2164,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2227,24 +2230,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2253,31 +2256,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,14 +2306,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2343,7 +2346,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2359,7 +2362,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2409,7 +2412,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2425,7 +2428,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2471,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2491,7 +2494,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2524,7 +2527,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2550,7 +2553,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,14 +2603,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,11 +2669,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2699,11 +2702,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2788,7 +2791,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,11 +2801,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2854,7 +2857,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2868,10 +2871,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2880,7 +2883,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2913,31 +2916,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2953,21 +2956,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2979,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,14 +2999,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3012,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3045,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3128,11 +3131,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3161,11 +3164,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3217,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3283,24 +3286,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,31 +3312,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3349,7 +3352,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3382,24 +3385,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,28 +3411,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3448,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,7 +3477,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3487,18 +3490,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,31 +3510,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3573,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,11 +3659,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,11 +3725,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,11 +3791,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3910,7 +3913,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3976,7 +3979,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4042,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4141,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4200,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4233,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4306,7 +4309,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4339,7 +4342,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>251</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,14 +4418,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>41</v>
@@ -4464,31 +4467,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4497,31 +4500,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,31 +4533,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,31 +4566,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,28 +4599,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4629,31 +4632,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,31 +4665,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,28 +4698,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4728,28 +4731,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4761,28 +4764,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4794,28 +4797,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4827,28 +4830,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4867,21 +4870,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4900,21 +4903,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4926,28 +4929,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4959,28 +4962,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4999,21 +5002,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5025,28 +5028,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5065,21 +5068,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5091,66 +5094,99 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6846.9650000000001</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>305</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>22</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>62</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>215</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6862.8050000000003</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>306</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
         <v>307</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>308</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5699,10 +5735,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:06 PM</t>
+    <t>Saturday, 26 July, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -365,6 +374,12 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
@@ -458,6 +473,9 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
@@ -515,6 +533,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -542,9 +566,6 @@
     <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -668,6 +689,12 @@
     <t>2:3</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -791,15 +818,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8513:0</t>
+    <t>8511:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -929,7 +953,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:07 PM</t>
+    <t>Saturday, 26 July, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2296,7 +2320,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2329,7 +2353,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2346,7 +2370,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2362,7 +2386,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2428,7 +2452,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2508,10 +2532,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2541,7 +2565,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2603,11 +2627,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2683,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2716,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,11 +2726,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,11 +2759,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2808,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2857,7 +2881,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2891,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2890,7 +2914,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2923,7 +2947,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2937,10 +2961,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,24 +2973,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2989,7 +3013,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,14 +3023,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,31 +3039,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3065,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,14 +3105,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3122,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3121,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3138,7 +3162,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3154,7 +3178,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3187,7 +3211,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3220,7 +3244,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,11 +3287,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3279,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3320,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,31 +3336,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3386,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3378,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,14 +3419,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3411,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3484,7 +3508,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3550,7 +3574,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,11 +3584,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3576,7 +3600,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,31 +3633,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,11 +3716,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3708,14 +3732,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,7 +3765,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3758,11 +3782,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3781,7 +3805,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3814,7 +3838,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,11 +3848,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3913,7 +3937,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,11 +3947,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,7 +4079,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4071,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4112,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4145,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4144,7 +4168,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,11 +4211,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4210,7 +4234,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4293,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4310,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4343,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4392,7 +4416,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,11 +4442,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4434,7 +4458,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4451,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4508,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,31 +4524,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,31 +4557,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,31 +4590,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,31 +4623,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,14 +4656,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4673,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4689,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4706,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4722,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4739,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4755,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4772,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4764,14 +4788,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4805,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4797,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,14 +4838,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,14 +4854,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4863,14 +4887,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,11 +4904,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4896,14 +4920,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,11 +4937,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4929,14 +4953,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,11 +4970,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4962,14 +4986,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4979,11 +5003,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4995,14 +5019,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5028,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5045,11 +5069,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5061,14 +5085,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5078,11 +5102,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5094,14 +5118,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5111,11 +5135,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5127,14 +5151,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5144,49 +5168,181 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6862.8050000000003</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>306</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>307</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>308</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>309</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>62</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>146</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>310</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>109</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>62</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>146</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>311</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>312</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>62</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>63</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>313</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>22</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>62</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>222</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7110.3050000000003</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>314</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>315</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>316</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5740,10 +5896,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -356,7 +356,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
@@ -602,6 +605,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -875,72 +884,84 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>غيار جروح غير لاصق10*10</t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
     <t>25:0</t>
   </si>
   <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>شامبو صانسيلك صغير 180ملل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>غيار جروح غير لاصق10*10</t>
-  </si>
-  <si>
-    <t>57:0</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -953,7 +974,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:08 PM</t>
+    <t>Saturday, 26 July, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2565,10 +2586,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2577,7 +2598,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2598,7 +2619,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2610,7 +2631,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2627,11 +2648,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2643,7 +2664,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2664,7 +2685,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2676,7 +2697,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,11 +2747,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2742,7 +2763,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2775,7 +2796,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2792,11 +2813,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2808,7 +2829,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2825,11 +2846,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2841,7 +2862,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2858,11 +2879,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2874,14 +2895,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2895,7 +2916,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2907,7 +2928,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2924,11 +2945,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2940,7 +2961,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2957,11 +2978,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2973,7 +2994,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2990,11 +3011,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3006,7 +3027,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3023,11 +3044,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3039,7 +3060,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3060,7 +3081,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3072,7 +3093,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3093,7 +3114,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,7 +3159,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3155,11 +3176,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3171,7 +3192,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3188,11 +3209,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3204,7 +3225,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3221,11 +3242,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3237,7 +3258,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3254,11 +3275,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3270,7 +3291,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3287,11 +3308,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3303,7 +3324,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3324,7 +3345,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,7 +3374,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3369,7 +3390,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3402,7 +3423,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3423,7 +3444,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3435,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3452,11 +3473,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3468,7 +3489,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3489,7 +3510,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3501,7 +3522,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3522,7 +3543,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3534,7 +3555,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3551,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3567,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3600,7 +3621,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3617,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>51</v>
@@ -3633,7 +3654,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3654,7 +3675,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,14 +3704,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3706,7 +3727,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3723,7 +3744,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3739,7 +3760,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3756,7 +3777,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3772,7 +3793,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3789,7 +3810,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3805,7 +3826,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3838,7 +3859,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3871,7 +3892,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,11 +3902,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3897,7 +3918,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3914,11 +3935,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3937,7 +3958,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,11 +3968,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3963,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4003,7 +4024,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4034,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,11 +4100,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4095,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4135,7 +4156,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,11 +4199,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4201,7 +4222,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4260,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4300,7 +4321,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,11 +4364,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4366,7 +4387,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4399,7 +4420,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4432,7 +4453,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4449,7 +4470,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4465,7 +4486,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,11 +4529,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4524,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>261</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4557,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4611,10 +4632,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4644,10 +4665,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>109</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4663,24 +4684,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4696,7 +4717,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4713,7 +4734,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4729,7 +4750,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4772,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,7 +4830,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4821,14 +4842,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4838,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,7 +4908,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4904,11 +4925,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4920,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4953,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4986,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5019,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,11 +5057,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5052,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5085,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5118,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,11 +5156,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5151,14 +5172,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5168,11 +5189,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5184,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5201,11 +5222,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5217,14 +5238,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>109</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5234,11 +5255,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5250,14 +5271,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5267,11 +5288,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5283,14 +5304,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5300,49 +5321,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7110.3050000000003</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>314</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>315</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>316</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>317</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>109</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>62</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>147</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>318</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>319</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>62</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>63</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>320</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>22</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>62</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>225</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7250.3050000000003</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>321</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>322</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>323</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5916,10 +6036,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:10 PM</t>
+    <t>Saturday, 26 July, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:12 PM</t>
+    <t>Saturday, 26 July, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:13 PM</t>
+    <t>Saturday, 26 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -386,6 +386,18 @@
     <t>ENRICH SYRUP 100 ML</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -530,12 +542,6 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -587,7 +593,16 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
   </si>
   <si>
     <t>MAVILOR 5MG 30 TAB.</t>
@@ -683,6 +698,9 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -746,6 +764,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -854,9 +881,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -881,6 +905,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -974,7 +1004,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:17 PM</t>
+    <t>Saturday, 26 July, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2754,7 +2784,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2770,7 +2800,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2796,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2813,11 +2843,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2829,7 +2859,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2846,11 +2876,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2862,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2895,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2928,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,11 +2975,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2961,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3027,7 +3057,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3044,14 +3074,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,31 +3090,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,7 +3123,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3106,18 +3136,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,7 +3196,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3183,7 +3213,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,11 +3272,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3258,7 +3288,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3275,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3291,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3324,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,11 +3371,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3364,7 +3394,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3397,7 +3427,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3463,24 +3493,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,31 +3519,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3562,24 +3592,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,28 +3618,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3628,7 +3658,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,31 +3684,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3694,7 +3724,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,31 +3750,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3760,7 +3790,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3786,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,11 +3833,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3819,7 +3849,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3836,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3852,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,11 +3932,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3918,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3951,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3984,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4024,7 +4054,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4041,7 +4071,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4067,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4090,7 +4120,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4116,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4199,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4295,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4281,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4321,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,7 +4361,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4354,7 +4384,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4387,7 +4417,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4493,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4602,7 +4632,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4644,7 +4674,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4661,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>109</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,31 +4740,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4743,31 +4773,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,31 +4806,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,31 +4839,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4974,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5007,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5054,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5040,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5087,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>142</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5113,7 +5143,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5139,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5172,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5205,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5238,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5271,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5318,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5304,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5337,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,11 +5384,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5370,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5387,11 +5417,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5403,14 +5433,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5420,49 +5450,214 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7250.3050000000003</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>321</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>322</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>323</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>325</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>292</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>62</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>73</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>326</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>324</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>62</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>151</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>327</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>109</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>62</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>151</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>328</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>329</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>62</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>63</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>330</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>22</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>62</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>231</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7549.6450000000004</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>331</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>332</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>333</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6051,10 +6246,35 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>103.9500</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -392,9 +401,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -593,7 +599,10 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -1893,7 +1902,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1935,14 +1944,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2008,7 +2017,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2018,14 +2027,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2051,11 +2060,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2067,31 +2076,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2100,31 +2109,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2133,14 +2142,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2157,7 +2166,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2173,7 +2182,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2190,7 +2199,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2206,7 +2215,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2223,7 +2232,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2239,7 +2248,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2289,7 +2298,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2305,7 +2314,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2315,11 +2324,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2331,20 +2340,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2355,7 +2364,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2371,13 +2380,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2388,7 +2397,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2404,7 +2413,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2454,7 +2463,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2470,7 +2479,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2536,7 +2545,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2562,14 +2571,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2892,7 +2901,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2909,11 +2918,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2998,7 +3007,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,11 +3017,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3078,10 +3087,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,7 +3099,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,31 +3132,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3169,18 +3178,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3196,7 +3205,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,11 +3380,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,11 +3413,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3427,7 +3436,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3460,7 +3469,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3526,24 +3535,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3552,31 +3561,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,11 +3611,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3625,24 +3634,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,31 +3660,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3691,7 +3700,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3741,7 +3750,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3757,24 +3766,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,28 +3792,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3856,7 +3865,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3873,7 +3882,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3889,7 +3898,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3906,7 +3915,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3922,7 +3931,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3939,7 +3948,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3988,7 +3997,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4021,7 +4030,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,11 +4040,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4087,7 +4096,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,11 +4139,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4186,7 +4195,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,11 +4304,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4318,7 +4327,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4384,7 +4393,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,11 +4469,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4483,7 +4492,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4516,7 +4525,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,11 +4568,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4582,7 +4591,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4615,7 +4624,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4648,7 +4657,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4665,7 +4674,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4690,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>273</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4827,10 +4836,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4860,10 +4869,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,24 +4888,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4912,13 +4921,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4929,7 +4938,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4945,24 +4954,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,31 +4980,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5017,7 +5026,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5025,7 +5034,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5037,20 +5046,20 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5058,7 +5067,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5070,31 +5079,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5110,24 +5119,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>305</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5143,13 +5152,13 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5176,13 +5185,13 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5190,7 +5199,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>71</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5202,28 +5211,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5235,28 +5244,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5268,28 +5277,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5301,28 +5310,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5334,28 +5343,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5367,28 +5376,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5400,28 +5409,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5433,28 +5442,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5466,28 +5475,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5499,28 +5508,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5532,28 +5541,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5565,28 +5574,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5598,66 +5607,99 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7549.6450000000004</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>331</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>332</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>333</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>22</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>65</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>234</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7585.2849999999999</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>334</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>335</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>336</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6271,10 +6313,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -215,6 +227,18 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -785,6 +809,9 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -803,6 +830,12 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -863,12 +896,18 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8511:0</t>
+    <t>8506:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -920,13 +959,25 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>28:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -978,9 +1029,6 @@
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>11:0</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -1753,7 +1801,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1763,14 +1811,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1779,14 +1827,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1803,7 +1851,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1935,7 +1983,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1951,7 +1999,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1961,14 +2009,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1977,14 +2025,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1994,14 +2042,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2010,14 +2058,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2027,14 +2075,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2050,7 +2098,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2060,14 +2108,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2076,14 +2124,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2093,11 +2141,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2109,20 +2157,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2133,7 +2181,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2149,13 +2197,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2166,7 +2214,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2182,7 +2230,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2192,11 +2240,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2208,14 +2256,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2225,11 +2273,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2241,7 +2289,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2258,11 +2306,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2274,14 +2322,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2291,14 +2339,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,7 +2355,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2324,14 +2372,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,14 +2388,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2357,14 +2405,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2373,31 +2421,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2406,14 +2454,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,11 +2471,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2439,31 +2487,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2472,14 +2520,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2537,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2505,14 +2553,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2570,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2538,14 +2586,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,14 +2603,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2571,14 +2619,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,14 +2636,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2604,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2670,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2735,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2703,14 +2751,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,14 +2768,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2736,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,14 +2801,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2769,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,11 +2834,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2802,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2819,11 +2867,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2835,14 +2883,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2900,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2868,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2889,10 +2937,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2918,11 +2966,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2934,14 +2982,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,11 +2999,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2967,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,14 +3032,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3000,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,14 +3065,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3033,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3050,11 +3098,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3066,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3083,14 +3131,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3099,14 +3147,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3116,11 +3164,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3132,14 +3180,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3149,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3165,28 +3213,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3198,14 +3246,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,14 +3263,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3231,31 +3279,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3264,7 +3312,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3281,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3297,14 +3345,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3362,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3378,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,14 +3395,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3363,14 +3411,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,11 +3428,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3396,14 +3444,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,11 +3461,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3429,14 +3477,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,11 +3494,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3462,14 +3510,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,14 +3527,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,11 +3560,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3528,14 +3576,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3549,10 +3597,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3561,31 +3609,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,14 +3659,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3627,31 +3675,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3660,31 +3708,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3741,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,14 +3758,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3726,28 +3774,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3759,14 +3807,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,14 +3824,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>55</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3792,31 +3840,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3825,14 +3873,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3842,14 +3890,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3858,31 +3906,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3939,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,11 +3956,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3924,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3957,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,11 +4022,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3990,14 +4038,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,14 +4055,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4023,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,11 +4088,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4056,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,11 +4121,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4089,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4122,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,11 +4187,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4155,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,11 +4220,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4188,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4253,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4319,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4352,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4353,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,7 +4467,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4436,14 +4484,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4500,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,11 +4517,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4485,14 +4533,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,11 +4583,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4551,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4616,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,7 +4665,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4634,11 +4682,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4650,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4690,7 +4738,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4707,7 +4755,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4723,7 +4771,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4797,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4855,7 +4903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,31 +4962,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,20 +4995,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4971,7 +5019,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4987,24 +5035,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5026,7 +5074,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5034,10 +5082,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5094,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,28 +5127,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5112,31 +5160,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>305</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,28 +5193,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5178,28 +5226,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5211,31 +5259,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,31 +5292,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,28 +5325,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>56</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5310,28 +5358,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5343,28 +5391,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>205</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5376,28 +5424,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5409,28 +5457,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5442,28 +5490,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5475,28 +5523,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5508,28 +5556,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5541,28 +5589,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>154</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5574,28 +5622,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5607,28 +5655,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5640,66 +5688,231 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7585.2849999999999</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>334</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>335</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>336</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>344</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>308</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>69</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>84</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>345</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>343</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>69</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>161</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>346</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>120</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>69</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>161</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>347</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>348</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>69</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>70</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>349</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>22</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>69</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>242</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7836.7049999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>350</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>351</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>352</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6318,10 +6531,35 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>0:1</t>
+  </si>
+  <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>ALL-VENT SYRUP 125ML</t>
@@ -1768,7 +1777,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1778,11 +1787,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1811,14 +1820,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1851,7 +1860,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1943,11 +1952,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1976,11 +1985,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2148,7 +2157,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2164,7 +2173,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2197,24 +2206,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2223,28 +2232,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2313,7 +2322,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2346,7 +2355,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2362,7 +2371,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2379,7 +2388,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2395,7 +2404,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2405,11 +2414,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2487,20 +2496,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2511,7 +2520,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2527,13 +2536,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2544,7 +2553,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2593,7 +2602,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2692,7 +2701,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2791,7 +2800,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2857,7 +2866,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3032,11 +3041,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3088,7 +3097,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3105,7 +3114,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3121,7 +3130,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3187,7 +3196,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3201,10 +3210,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3270,7 +3279,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3286,24 +3295,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,31 +3321,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3418,7 +3427,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3435,7 +3444,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3451,7 +3460,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3517,7 +3526,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,31 +3684,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3715,24 +3724,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3774,31 +3783,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3814,24 +3823,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3847,7 +3856,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3880,7 +3889,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3897,7 +3906,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3913,24 +3922,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3939,28 +3948,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4012,7 +4021,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4029,7 +4038,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4045,7 +4054,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4062,7 +4071,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4078,7 +4087,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4095,7 +4104,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4111,7 +4120,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4144,7 +4153,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4177,7 +4186,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4243,7 +4252,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4342,7 +4351,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,11 +4427,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4474,7 +4483,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4540,7 +4549,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4639,7 +4648,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4672,7 +4681,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,11 +4724,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4771,7 +4780,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4804,7 +4813,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4870,7 +4879,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4887,7 +4896,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4903,7 +4912,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>287</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5049,10 +5058,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5082,10 +5091,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>298</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,31 +5103,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>301</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5134,13 +5143,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5151,7 +5160,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5167,24 +5176,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5193,31 +5202,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5239,7 +5248,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5247,7 +5256,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5259,20 +5268,20 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5283,7 +5292,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5299,24 +5308,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5332,24 +5341,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>322</v>
-      </c>
-      <c t="s" r="Q117" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5365,13 +5374,13 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5398,13 +5407,13 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5431,13 +5440,13 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5445,7 +5454,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5457,28 +5466,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5490,28 +5499,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5523,28 +5532,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5556,28 +5565,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5589,28 +5598,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>324</v>
+        <v>94</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5622,28 +5631,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5655,28 +5664,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5688,28 +5697,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5721,28 +5730,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5754,28 +5763,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5787,28 +5796,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5820,28 +5829,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>348</v>
+        <v>123</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5853,66 +5862,99 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7836.7049999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>350</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>351</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>352</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>25</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>72</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>245</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7916.7049999999999</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>353</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>354</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>355</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6556,10 +6598,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>103.9500</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -755,9 +764,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -974,10 +980,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1070,7 +1073,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:32 PM</t>
+    <t>Saturday, 26 July, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2018,11 +2021,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2051,14 +2054,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2067,14 +2070,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2091,7 +2094,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2107,7 +2110,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2117,14 +2120,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2150,14 +2153,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2190,7 +2193,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2206,7 +2209,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2239,24 +2242,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2265,28 +2268,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2298,14 +2301,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2315,14 +2318,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2331,14 +2334,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2355,7 +2358,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2371,7 +2374,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2388,7 +2391,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2404,7 +2407,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2421,7 +2424,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2437,7 +2440,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2447,11 +2450,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2487,7 +2490,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2503,7 +2506,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2529,20 +2532,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2553,7 +2556,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2569,13 +2572,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2586,7 +2589,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2602,7 +2605,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2652,7 +2655,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2668,7 +2671,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2678,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2694,14 +2697,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2734,7 +2737,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2744,14 +2747,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2793,14 +2796,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2833,7 +2836,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2859,14 +2862,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2876,14 +2879,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2899,7 +2902,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2942,11 +2945,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2975,11 +2978,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3130,7 +3133,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3147,7 +3150,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3163,7 +3166,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3229,7 +3232,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3243,10 +3246,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3272,14 +3275,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3312,7 +3315,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3328,24 +3331,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3354,7 +3357,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3367,18 +3370,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3420,14 +3423,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3437,14 +3440,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3460,7 +3463,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3477,7 +3480,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3493,7 +3496,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3559,7 +3562,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3651,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3668,14 +3671,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3701,14 +3704,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3717,31 +3720,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3757,24 +3760,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3800,11 +3803,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3816,31 +3819,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3856,24 +3859,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3889,7 +3892,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3899,14 +3902,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3922,7 +3925,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3939,7 +3942,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3955,24 +3958,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3981,28 +3984,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4054,7 +4057,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4071,7 +4074,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4087,7 +4090,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4104,7 +4107,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4120,7 +4123,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4137,7 +4140,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4153,7 +4156,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4186,7 +4189,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4219,7 +4222,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4229,11 +4232,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4262,11 +4265,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4285,7 +4288,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4384,7 +4387,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4394,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,14 +4430,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4450,7 +4453,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,11 +4463,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4476,14 +4479,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4509,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,14 +4595,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4608,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,14 +4628,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4648,7 +4651,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4658,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4674,14 +4677,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4707,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4724,14 +4727,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4757,11 +4760,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4773,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4839,7 +4842,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4856,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4879,7 +4882,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4905,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4938,14 +4941,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4955,14 +4958,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4971,14 +4974,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,11 +4991,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -5004,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5021,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>290</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5037,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,14 +5057,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5070,14 +5073,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5090,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5110,7 +5113,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,14 +5123,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>301</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5136,31 +5139,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5169,31 +5172,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,31 +5205,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5242,24 +5245,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5268,28 +5271,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5301,31 +5304,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>59</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5334,31 +5337,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>322</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5367,31 +5370,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5400,28 +5403,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5433,28 +5436,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5466,28 +5469,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>85</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5499,28 +5502,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5532,28 +5535,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>164</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5565,28 +5568,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5605,21 +5608,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5638,21 +5641,21 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5664,28 +5667,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5704,21 +5707,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5730,28 +5733,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5763,28 +5766,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5803,21 +5806,21 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5836,21 +5839,21 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5869,21 +5872,21 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5895,66 +5898,99 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7916.7049999999999</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>353</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>25</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>75</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>248</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7931.1850000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
         <v>354</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
         <v>355</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>356</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6603,10 +6639,15 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>-67.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ANSELACOX 90MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -695,6 +707,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>-39.0000</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -1073,7 +1091,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:33 PM</t>
+    <t>Saturday, 26 July, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1912,7 +1930,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2021,11 +2039,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2054,7 +2072,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -2094,7 +2112,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2110,7 +2128,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2209,7 +2227,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2268,20 +2286,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2292,7 +2310,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2308,13 +2326,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2358,7 +2376,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2374,7 +2392,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2506,7 +2524,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2572,24 +2590,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2598,31 +2616,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2648,11 +2666,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2664,7 +2682,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2721,7 +2739,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2737,7 +2755,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2787,7 +2805,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2803,7 +2821,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2846,14 +2864,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,11 +2963,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,11 +2996,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,11 +3029,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3067,7 +3085,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3110,11 +3128,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3126,7 +3144,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3143,11 +3161,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3242,11 +3260,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3324,7 +3342,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3357,31 +3375,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3390,7 +3408,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3403,18 +3421,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3463,7 +3481,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3480,7 +3498,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,11 +3557,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3555,7 +3573,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3572,11 +3590,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,31 +3771,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3786,31 +3804,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,11 +3854,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3885,31 +3903,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>179</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,31 +4002,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4017,28 +4035,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,31 +4167,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4189,7 +4207,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4206,7 +4224,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4222,7 +4240,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4255,7 +4273,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,11 +4316,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4364,11 +4382,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4496,14 +4514,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,11 +4547,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4545,14 +4563,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4611,7 +4629,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4628,14 +4646,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,11 +4679,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4727,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4750,7 +4768,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4760,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4826,11 +4844,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4859,11 +4877,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4882,7 +4900,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4908,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,11 +4943,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4941,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4958,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4981,7 +4999,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4991,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>59</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5057,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>292</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5080,7 +5098,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5123,14 +5141,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>55</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5163,7 +5181,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5172,31 +5190,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5205,31 +5223,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>309</v>
-      </c>
-      <c t="s" r="Q113" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5245,21 +5263,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>143</v>
+        <v>298</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5271,20 +5289,20 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5292,7 +5310,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5304,31 +5322,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5337,20 +5355,20 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5358,10 +5376,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5370,31 +5388,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>323</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5403,31 +5421,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,31 +5454,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>329</v>
-      </c>
-      <c t="s" r="Q120" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5476,13 +5494,13 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5509,13 +5527,13 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5523,7 +5541,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5535,28 +5553,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5568,28 +5586,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5601,7 +5619,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5614,15 +5632,15 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5634,28 +5652,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5667,28 +5685,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5700,28 +5718,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5733,28 +5751,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5766,28 +5784,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5799,28 +5817,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5832,28 +5850,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5865,28 +5883,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5898,28 +5916,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5931,66 +5949,132 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7931.1850000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>354</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>355</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>356</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>357</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>358</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>79</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>80</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>25</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>79</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>254</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7824.6850000000004</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>360</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>361</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>362</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6644,10 +6728,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
@@ -605,9 +614,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -764,9 +770,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
   </si>
   <si>
@@ -890,6 +893,15 @@
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1091,7 +1103,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:37 PM</t>
+    <t>Saturday, 26 July, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2920,7 +2932,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2986,7 +2998,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2996,11 +3008,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3161,11 +3173,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3217,7 +3229,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3234,7 +3246,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3250,7 +3262,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3260,11 +3272,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3293,11 +3305,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3316,7 +3328,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3330,10 +3342,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3399,7 +3411,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3415,24 +3427,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3441,7 +3453,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3454,18 +3466,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3547,7 +3559,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3564,7 +3576,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3646,7 +3658,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3745,7 +3757,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3811,24 +3823,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3837,31 +3849,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,11 +3899,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3910,24 +3922,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3936,31 +3948,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3986,14 +3998,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4035,7 +4047,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4048,18 +4060,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4075,21 +4087,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4108,7 +4120,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,31 +4179,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4207,24 +4219,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4365,7 +4377,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4382,11 +4394,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,11 +4427,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4438,7 +4450,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4471,7 +4483,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4537,7 +4549,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4603,7 +4615,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,14 +4658,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4669,7 +4681,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,11 +4691,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4735,7 +4747,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,11 +4790,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4867,7 +4879,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,11 +4889,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4900,7 +4912,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4926,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4959,7 +4971,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4976,14 +4988,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5098,7 +5110,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,11 +5120,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5131,7 +5143,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5190,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>59</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>309</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,31 +5268,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,31 +5301,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,11 +5351,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5384,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5388,14 +5400,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>174</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,14 +5433,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,14 +5450,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5454,14 +5466,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5471,14 +5483,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>329</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,7 +5499,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5504,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5520,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5553,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,11 +5582,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5586,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,11 +5615,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>92</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5619,14 +5631,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,11 +5648,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5659,7 +5671,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5681,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5702,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5718,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,11 +5747,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5751,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,11 +5780,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>335</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5784,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5817,14 +5829,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,11 +5846,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5850,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,11 +5879,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5890,7 +5902,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,11 +5912,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5916,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5933,11 +5945,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5949,14 +5961,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>130</v>
+        <v>323</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5966,11 +5978,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -5982,14 +5994,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5999,11 +6011,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6015,14 +6027,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6032,49 +6044,115 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7824.6850000000004</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>360</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>361</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
         <v>362</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>79</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>80</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>363</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>25</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>79</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>255</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>7889.3950000000004</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>364</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>365</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>366</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6738,10 +6816,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -1103,7 +1103,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:38 PM</t>
+    <t>Saturday, 26 July, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -143,648 +143,648 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>BRAVAMAX 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORVIBEAK 20CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ENRICH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HYDROQUINE 200MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LEZBERG TRIO 40/10/25MG TAB</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>139.6500</t>
+  </si>
+  <si>
+    <t>MEDIPHA IVY SYRUP</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>-39.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>ONE ALPHA 0.5 MCG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>178.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>BRAVAMAX 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALDIN ZINC SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CODILAR SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORVIBEAK 20CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ENRICH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HYDROQUINE 200MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LANZOFUTAL 30 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LEZBERG TRIO 40/10/25MG TAB</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>139.6500</t>
-  </si>
-  <si>
-    <t>MEDIPHA IVY SYRUP</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>-39.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>ONE ALPHA 0.5 MCG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>178.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -818,6 +818,9 @@
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -1010,7 +1013,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>31:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1103,7 +1106,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:43 PM</t>
+    <t>Saturday, 26 July, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2025,7 +2028,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2371,7 +2374,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2381,11 +2384,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2397,14 +2400,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2414,11 +2417,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2430,7 +2433,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2447,11 +2450,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2480,11 +2483,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2496,7 +2499,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2562,7 +2565,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2579,11 +2582,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2595,14 +2598,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2645,11 +2648,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2661,7 +2664,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2678,11 +2681,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2711,11 +2714,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2744,11 +2747,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>48</v>
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2777,11 +2780,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2810,11 +2813,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2859,7 +2862,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2880,7 +2883,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2913,7 +2916,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>69</v>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2942,11 +2945,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3008,11 +3011,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3024,7 +3027,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3057,7 +3060,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3140,11 +3143,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3156,7 +3159,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3189,7 +3192,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3222,7 +3225,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3305,11 +3308,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3338,11 +3341,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3387,7 +3390,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3437,11 +3440,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3453,7 +3456,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3474,7 +3477,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3486,7 +3489,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3536,14 +3539,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>186</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3552,7 +3555,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3585,7 +3588,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3618,7 +3621,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3651,7 +3654,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3668,11 +3671,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3684,7 +3687,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3705,7 +3708,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3717,7 +3720,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3837,7 +3840,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3866,11 +3869,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>40</v>
@@ -3882,7 +3885,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3932,11 +3935,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3948,7 +3951,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3965,11 +3968,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4002,10 +4005,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4014,7 +4017,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4031,11 +4034,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4064,11 +4067,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>69</v>
@@ -4080,7 +4083,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4179,7 +4182,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4196,11 +4199,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>38</v>
@@ -4245,7 +4248,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4262,11 +4265,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4278,7 +4281,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4361,11 +4364,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4398,7 +4401,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4410,7 +4413,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4509,7 +4512,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4526,11 +4529,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>40</v>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4724,7 +4727,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4757,11 +4760,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4780,7 +4783,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4790,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4856,11 +4859,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4872,14 +4875,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4912,7 +4915,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4922,11 +4925,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4945,7 +4948,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4955,11 +4958,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4971,14 +4974,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4988,11 +4991,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5004,7 +5007,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5021,14 +5024,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5037,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5054,14 +5057,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5070,14 +5073,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5087,14 +5090,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5120,14 +5123,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5143,7 +5146,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5153,14 +5156,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>171</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5169,14 +5172,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5186,14 +5189,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5209,7 +5212,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5219,14 +5222,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5235,14 +5238,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5252,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5271,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5285,14 +5288,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5301,14 +5304,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5318,14 +5321,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>313</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5334,31 +5337,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5367,14 +5370,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,14 +5387,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5400,14 +5403,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5417,14 +5420,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5433,14 +5436,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>149</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5450,14 +5453,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>173</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5466,14 +5469,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5483,11 +5486,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5499,14 +5502,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5516,14 +5519,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5532,7 +5535,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5549,14 +5552,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>333</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5565,7 +5568,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5582,14 +5585,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5598,14 +5601,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5615,11 +5618,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5631,14 +5634,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>323</v>
+        <v>149</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5648,11 +5651,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5664,14 +5667,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5681,11 +5684,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>92</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5697,14 +5700,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5714,11 +5717,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5730,14 +5733,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5747,11 +5750,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>174</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5763,14 +5766,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5780,11 +5783,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5803,7 +5806,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5813,11 +5816,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5836,7 +5839,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>352</v>
+        <v>59</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5846,11 +5849,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5862,14 +5865,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5879,11 +5882,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5902,7 +5905,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5912,11 +5915,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5928,14 +5931,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,11 +5948,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5961,14 +5964,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5978,11 +5981,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6001,7 +6004,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6011,11 +6014,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6034,7 +6037,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6044,11 +6047,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6067,7 +6070,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6077,11 +6080,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6093,14 +6096,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6110,49 +6113,82 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>7889.3950000000004</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
         <v>364</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>25</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>79</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>254</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7930.875</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
         <v>365</v>
       </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
         <v>366</v>
       </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>367</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6826,10 +6862,15 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>29.00</t>
   </si>
   <si>
-    <t>29.0000</t>
+    <t>58.0000</t>
   </si>
   <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>مخمريه بلوب</t>
   </si>
   <si>
     <t>معجون حلاقه 55555</t>
@@ -4354,7 +4357,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4371,7 +4374,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -6037,7 +6040,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>358</v>
+        <v>66</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6047,11 +6050,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6070,7 +6073,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6103,7 +6106,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6113,11 +6116,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6129,14 +6132,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6146,49 +6149,82 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>365</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>25</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>79</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>254</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>322</v>
       </c>
-      <c t="s" r="Q140" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>7930.875</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>365</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
+      <c t="s" r="Q141" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>8019.875</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
         <v>366</v>
       </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
         <v>367</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>368</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6867,10 +6903,15 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -671,6 +671,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -845,6 +854,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -911,9 +926,6 @@
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
-    <t>-7:0</t>
-  </si>
-  <si>
     <t>68.00</t>
   </si>
   <si>
@@ -1109,7 +1121,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 10:45 PM</t>
+    <t>Saturday, 26 July, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4060,7 +4072,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4077,7 +4089,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4099,18 +4111,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4119,28 +4131,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4192,7 +4204,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4209,7 +4221,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4225,24 +4237,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4251,31 +4263,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4291,7 +4303,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4308,7 +4320,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4324,7 +4336,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4357,7 +4369,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4374,7 +4386,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4390,7 +4402,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4400,14 +4412,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4416,7 +4428,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4433,11 +4445,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4456,7 +4468,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4466,11 +4478,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4482,14 +4494,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4499,11 +4511,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4515,14 +4527,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4532,14 +4544,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4555,7 +4567,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4565,14 +4577,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4598,14 +4610,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4631,11 +4643,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4647,14 +4659,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4664,11 +4676,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4687,7 +4699,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4697,14 +4709,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4730,11 +4742,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4753,7 +4765,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4763,14 +4775,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4779,14 +4791,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4796,11 +4808,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4812,14 +4824,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4862,11 +4874,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4885,7 +4897,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4918,7 +4930,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4928,14 +4940,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4944,14 +4956,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4961,14 +4973,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4977,14 +4989,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4994,11 +5006,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>100</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5010,14 +5022,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5027,11 +5039,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5043,14 +5055,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5060,14 +5072,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5083,7 +5095,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5116,7 +5128,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5126,14 +5138,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>70</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5142,14 +5154,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5159,14 +5171,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5175,14 +5187,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5192,11 +5204,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5208,14 +5220,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5241,14 +5253,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5265,7 +5277,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5274,14 +5286,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5291,14 +5303,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5307,14 +5319,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5324,14 +5336,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>59</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5340,14 +5352,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5357,14 +5369,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>314</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5373,31 +5385,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5406,31 +5418,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5439,14 +5451,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5456,11 +5468,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>25</v>
@@ -5472,14 +5484,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5489,11 +5501,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5505,14 +5517,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5522,14 +5534,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5538,14 +5550,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5555,14 +5567,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5571,14 +5583,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5588,14 +5600,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5604,7 +5616,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5621,14 +5633,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5637,14 +5649,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5654,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5670,14 +5682,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5687,11 +5699,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5703,14 +5715,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5720,11 +5732,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>91</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5736,14 +5748,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5753,11 +5765,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5776,7 +5788,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5786,11 +5798,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5819,11 +5831,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>168</v>
+        <v>351</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5835,14 +5847,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5852,11 +5864,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5868,14 +5880,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5885,11 +5897,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5901,14 +5913,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5918,11 +5930,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5934,14 +5946,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5951,11 +5963,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>173</v>
+        <v>343</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5967,14 +5979,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5984,11 +5996,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6007,7 +6019,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6017,11 +6029,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6033,14 +6045,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6050,11 +6062,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6066,14 +6078,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6083,11 +6095,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6099,14 +6111,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6116,11 +6128,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6132,14 +6144,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6149,11 +6161,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>12</v>
@@ -6165,14 +6177,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6182,49 +6194,115 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>8019.875</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>366</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
         <v>367</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
         <v>368</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>79</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>80</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>369</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>25</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>79</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>257</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>8139.875</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>370</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>371</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>372</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6908,10 +6986,20 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-26_00-00.xlsx
+++ b/DaySale_2025-07-26_00-00.xlsx
@@ -635,6 +635,9 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
     <t>LEVCET 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
@@ -722,7 +725,7 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>-39.0000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>MYOFEN 30 CAPS</t>
@@ -896,7 +899,7 @@
     <t>38.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>76.0000</t>
   </si>
   <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
@@ -1121,7 +1124,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Saturday, 26 July, 2025 11:00 PM</t>
+    <t>Saturday, 26 July, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3917,11 +3920,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3940,7 +3943,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3950,11 +3953,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3966,31 +3969,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3999,31 +4002,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4032,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4049,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4065,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4082,11 +4085,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4098,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4115,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4131,7 +4134,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4144,18 +4147,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4164,28 +4167,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4214,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4230,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4247,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4263,31 +4266,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4296,31 +4299,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4346,14 +4349,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4362,14 +4365,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4379,11 +4382,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4395,14 +4398,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4412,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4428,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4445,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4478,11 +4481,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4494,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4511,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4534,7 +4537,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4544,11 +4547,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O91" s="